--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Proyectos KiCad\2024-AmplificadorTDA2030\AmplificadorTDA2030\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856F83A-0137-4816-B5C6-4F157F7B74EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284D9BE-8F89-4422-BF92-EB67F655BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,18 +30,6 @@
     <t>Componente</t>
   </si>
   <si>
-    <t>Resistencia 150K</t>
-  </si>
-  <si>
-    <t>Resistencia 100K</t>
-  </si>
-  <si>
-    <t>Resistencia 4K7</t>
-  </si>
-  <si>
-    <t>Resistencia 1R</t>
-  </si>
-  <si>
     <t>Capacitor Ceramico 100nF</t>
   </si>
   <si>
@@ -63,9 +51,6 @@
     <t>Led 5mm</t>
   </si>
   <si>
-    <t>Resistencia 820R</t>
-  </si>
-  <si>
     <t>Potenciometro Doble A50K</t>
   </si>
   <si>
@@ -88,6 +73,21 @@
   </si>
   <si>
     <t>Capacitor Electrolitico 1uF/35V</t>
+  </si>
+  <si>
+    <t>Resistencia 150K a 1/4W</t>
+  </si>
+  <si>
+    <t>Resistencia 100K a 1/4W</t>
+  </si>
+  <si>
+    <t>Resistencia 4K7 a 1/4W</t>
+  </si>
+  <si>
+    <t>Resistencia 820R a 1/4W</t>
+  </si>
+  <si>
+    <t>Resistencia 1R a 1/4W</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -427,12 +427,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
